--- a/Output/Modelling/Logistic Regression/Tables/Most_Complex_Model_Best_Params.xlsx
+++ b/Output/Modelling/Logistic Regression/Tables/Most_Complex_Model_Best_Params.xlsx
@@ -467,15 +467,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Balanced</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
